--- a/Optimization/Gurobi/Children+Elderly+hcw/compiled-fraction-0.5.xlsx
+++ b/Optimization/Gurobi/Children+Elderly+hcw/compiled-fraction-0.5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>Transport part</t>
   </si>
@@ -49,28 +49,28 @@
     <t>1(12.0 times)</t>
   </si>
   <si>
-    <t>1(84.0 times)</t>
-  </si>
-  <si>
-    <t>1(12.0 times), 2(12.0 times), 3(12.0 times), 4(12.0 times), 5(24.0 times), 6(36.0 times), 9(12.0 times)</t>
-  </si>
-  <si>
-    <t>1(120.0 times), 2(96.0 times), 3(277.0 times), 4(84.0 times), 5(119.0 times), 6(72.0 times), 7(96.0 times), 8(72.0 times), 9(240.0 times), 10(228.0 times)</t>
-  </si>
-  <si>
-    <t>1(648000 Rs)</t>
-  </si>
-  <si>
-    <t>1(332400 Rs)</t>
-  </si>
-  <si>
-    <t>1(1994110 Rs)</t>
-  </si>
-  <si>
-    <t>1(240000 Rs), 2(120000 Rs), 3(240000 Rs), 4(240000 Rs), 5(303061 Rs), 6(424522 Rs), 9(140861 Rs)</t>
-  </si>
-  <si>
-    <t>1(635828 Rs), 2(497748 Rs), 3(1640672 Rs), 4(445919 Rs), 5(643192 Rs), 6(373113 Rs), 7(505123 Rs), 8(378706 Rs), 9(1323707 Rs), 10(1154485 Rs)</t>
+    <t>1(74.0 times)</t>
+  </si>
+  <si>
+    <t>1(16.0 times), 2(12.0 times), 3(12.0 times), 4(12.0 times), 5(20.0 times), 6(33.0 times), 9(3.0 times)</t>
+  </si>
+  <si>
+    <t>1(109.0 times), 2(95.0 times), 3(273.0 times), 4(191.0 times), 5(182.0 times), 6(169.0 times), 7(115.0 times), 8(64.0 times), 9(194.0 times), 10(338.0 times)</t>
+  </si>
+  <si>
+    <t>1(918000 Rs)</t>
+  </si>
+  <si>
+    <t>1(415500 Rs)</t>
+  </si>
+  <si>
+    <t>1(1826959 Rs)</t>
+  </si>
+  <si>
+    <t>1(275456 Rs), 2(121894 Rs), 3(161490 Rs), 4(240000 Rs), 5(265098 Rs), 6(395178 Rs), 9(35215 Rs)</t>
+  </si>
+  <si>
+    <t>1(575222 Rs), 2(524858 Rs), 3(1607932 Rs), 4(1036981 Rs), 5(1006654 Rs), 6(909482 Rs), 7(628358 Rs), 8(355205 Rs), 9(1063638 Rs), 10(1721210 Rs)</t>
   </si>
   <si>
     <t>Inventory part</t>
@@ -100,46 +100,49 @@
     <t>I</t>
   </si>
   <si>
-    <t>1(0 times), 2(0 times), 3(0 times), 4(0 times), 5(0 times), 6(0 times), 7(0 times), 8(0 times), 9(0 times), 10(0 times)</t>
-  </si>
-  <si>
-    <t>1(0 units), 2(0 units), 3(0 units), 4(0 units), 5(0 units), 6(0 units), 7(0 units), 8(0 units), 9(0 units), 10(0 units)</t>
+    <t>1(2 times)</t>
+  </si>
+  <si>
+    <t>1(0 times), 2(5 times), 3(0 times), 4(0 times), 5(1 times), 6(0 times), 7(1 times), 8(4 times), 9(0 times), 10(0 times)</t>
+  </si>
+  <si>
+    <t>1(33800.0 units)</t>
+  </si>
+  <si>
+    <t>1(0 units), 2(6263 units), 3(0 units), 4(1369 units), 5(3100 units), 6(281 units), 7(3498 units), 8(7918 units), 9(0 units), 10(0 units)</t>
+  </si>
+  <si>
+    <t>1(20280 Rs)</t>
+  </si>
+  <si>
+    <t>1(0 Rs), 2(11069 Rs), 3(0 Rs), 4(439 Rs), 5(1587 Rs), 6(87 Rs), 7(1490 Rs), 8(10346 Rs), 9(0 Rs), 10(0 Rs)</t>
+  </si>
+  <si>
+    <t>Ordering part</t>
+  </si>
+  <si>
+    <t>Average quantities ordered over the entire planning horizon</t>
+  </si>
+  <si>
+    <t>1(1477904 units)</t>
+  </si>
+  <si>
+    <t>1(239660 units)</t>
+  </si>
+  <si>
+    <t>1(218872 units), 2(139860 units), 3(159688 units), 4(274964 units), 5(133879 units), 6(131729 units), 9(104702 units)</t>
+  </si>
+  <si>
+    <t>1(15011 units), 2(10319 units), 3(11216 units), 4(8899 units), 5(8926 units), 6(9951 units), 7(9486 units), 8(9534 units), 9(10566 units), 10(9762 units)</t>
+  </si>
+  <si>
+    <t>1(0 Rs)</t>
+  </si>
+  <si>
+    <t>1(0 Rs), 2(0 Rs), 3(0 Rs), 4(0 Rs), 5(0 Rs), 6(0 Rs), 9(0 Rs)</t>
   </si>
   <si>
     <t>1(0 Rs), 2(0 Rs), 3(0 Rs), 4(0 Rs), 5(0 Rs), 6(0 Rs), 7(0 Rs), 8(0 Rs), 9(0 Rs), 10(0 Rs)</t>
-  </si>
-  <si>
-    <t>Ordering part</t>
-  </si>
-  <si>
-    <t>Average quantities ordered over the entire planning horizon</t>
-  </si>
-  <si>
-    <t>1(1000000 units)</t>
-  </si>
-  <si>
-    <t>1(142857 units)</t>
-  </si>
-  <si>
-    <t>1(193079 units), 2(45194 units), 3(178510 units), 4(160148 units), 5(97079 units), 6(60012 units), 9(48876 units)</t>
-  </si>
-  <si>
-    <t>1(13015 units), 2(6672 units), 3(8364 units), 4(7763 units), 5(7293 units), 6(7532 units), 7(8001 units), 8(8146 units), 9(8926 units), 10(8429 units)</t>
-  </si>
-  <si>
-    <t>1(2400000 Rs)</t>
-  </si>
-  <si>
-    <t>1(1200000 Rs)</t>
-  </si>
-  <si>
-    <t>1(6300000 Rs)</t>
-  </si>
-  <si>
-    <t>1(300000 Rs), 2(300000 Rs), 3(300000 Rs), 4(300000 Rs), 5(600000 Rs), 6(900000 Rs), 9(300000 Rs)</t>
-  </si>
-  <si>
-    <t>1(1800000 Rs), 2(1440000 Rs), 3(4155000 Rs), 4(1260000 Rs), 5(1785000 Rs), 6(1080000 Rs), 7(1440000 Rs), 8(1080000 Rs), 9(3600000 Rs), 10(3420000 Rs)</t>
   </si>
   <si>
     <t>Shortage part</t>
@@ -551,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>648000</v>
+        <v>918000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -568,7 +571,7 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>332400</v>
+        <v>415500</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -585,7 +588,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>1994110</v>
+        <v>1826959</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -602,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>1708444</v>
+        <v>1494331</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -619,7 +622,7 @@
         <v>18</v>
       </c>
       <c r="E8">
-        <v>7598493</v>
+        <v>9429540</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -651,8 +654,17 @@
       <c r="B13" t="s">
         <v>23</v>
       </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
       <c r="F13">
-        <v>0</v>
+        <v>20280</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -696,21 +708,21 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>240948.4839724647</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -718,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -735,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E24">
-        <v>2400000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -752,13 +764,13 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E25">
-        <v>1200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -769,13 +781,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E26">
-        <v>6300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -786,13 +798,13 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E27">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -803,32 +815,32 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E28">
-        <v>21060000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="B34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -842,10 +854,10 @@
         <v>10</v>
       </c>
       <c r="D35">
-        <v>3144450000</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>314445000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -859,10 +871,10 @@
         <v>6</v>
       </c>
       <c r="D36">
-        <v>789306600</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>131551100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -876,10 +888,10 @@
         <v>12</v>
       </c>
       <c r="D37">
-        <v>11660040000</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>971670000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -893,10 +905,10 @@
         <v>12</v>
       </c>
       <c r="D38">
-        <v>37605261600</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>3133771800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -910,10 +922,10 @@
         <v>19</v>
       </c>
       <c r="D39">
-        <v>48923845200</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>2574939221.052631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -927,10 +939,10 @@
         <v>17</v>
       </c>
       <c r="D40">
-        <v>21907708200</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>1288688717.647059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -944,10 +956,10 @@
         <v>16</v>
       </c>
       <c r="D41">
-        <v>45684278400</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>2855267400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -961,10 +973,10 @@
         <v>11</v>
       </c>
       <c r="D42">
-        <v>14836044600</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>1348731327.272727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -978,10 +990,10 @@
         <v>20</v>
       </c>
       <c r="D43">
-        <v>20814288000</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>1040714400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -995,10 +1007,10 @@
         <v>28</v>
       </c>
       <c r="D44">
-        <v>74036833800</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>2644172635.714286</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
